--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori5/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori5/17/word_level_predictions_17.xlsx
@@ -3385,7 +3385,7 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G57" s="2" t="b">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="F118" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G118" s="2" t="b">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="L118" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori5/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori5/17/word_level_predictions_17.xlsx
@@ -3385,7 +3385,7 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G57" s="2" t="b">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="F118" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G118" s="2" t="b">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="L118" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
